--- a/views/financeiro/relatorios/resumo_campanha_73.xlsx
+++ b/views/financeiro/relatorios/resumo_campanha_73.xlsx
@@ -649,16 +649,16 @@
         <v>17829.6</v>
       </c>
       <c r="D8" s="6">
-        <v>12000.0</v>
+        <v>17829.6</v>
       </c>
       <c r="E8" s="6">
-        <v>5829.6</v>
+        <v>0.0</v>
       </c>
       <c r="F8" s="7">
-        <v>0.32696190604388</v>
+        <v>0.0</v>
       </c>
       <c r="G8" s="6">
-        <v>116.592</v>
+        <v>0</v>
       </c>
       <c r="H8" s="8">
         <v>0</v>
@@ -724,19 +724,19 @@
         <v>19</v>
       </c>
       <c r="C11" s="6">
-        <v>4800.0</v>
+        <v>5600.0</v>
       </c>
       <c r="D11" s="6">
         <v>4200.0</v>
       </c>
       <c r="E11" s="6">
-        <v>600.0</v>
+        <v>1400.0</v>
       </c>
       <c r="F11" s="7">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="G11" s="6">
-        <v>12.0</v>
+        <v>28.0</v>
       </c>
       <c r="H11" s="8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>20</v>
       </c>
       <c r="C12" s="6">
-        <v>9650.0</v>
+        <v>13580.0</v>
       </c>
       <c r="D12" s="6">
-        <v>3950.0</v>
+        <v>11350.0</v>
       </c>
       <c r="E12" s="6">
-        <v>5700.0</v>
+        <v>2230.0</v>
       </c>
       <c r="F12" s="7">
-        <v>0.59067357512953</v>
+        <v>0.16421207658321</v>
       </c>
       <c r="G12" s="6">
-        <v>114.0</v>
+        <v>44.6</v>
       </c>
       <c r="H12" s="8">
         <v>0</v>
@@ -776,19 +776,19 @@
         <v>21</v>
       </c>
       <c r="C13" s="9">
-        <v>35099.6</v>
+        <v>39829.6</v>
       </c>
       <c r="D13" s="9">
-        <v>21910.0</v>
+        <v>35139.6</v>
       </c>
       <c r="E13" s="9">
-        <v>13189.6</v>
+        <v>4690.0</v>
       </c>
       <c r="F13" s="10">
-        <v>0.37577636212378</v>
+        <v>0.11775162190933</v>
       </c>
       <c r="G13" s="9">
-        <v>263.792</v>
+        <v>93.8</v>
       </c>
       <c r="H13" s="9">
         <v>0</v>
@@ -1025,19 +1025,19 @@
         <v>29</v>
       </c>
       <c r="C26" s="6">
-        <v>35099.6</v>
+        <v>39829.6</v>
       </c>
       <c r="D26" s="6">
-        <v>21910.0</v>
+        <v>35139.6</v>
       </c>
       <c r="E26" s="6">
-        <v>13189.6</v>
+        <v>4690.0</v>
       </c>
       <c r="F26" s="7">
-        <v>0.37577636212378</v>
+        <v>0.11775162190933</v>
       </c>
       <c r="G26" s="6">
-        <v>263.792</v>
+        <v>93.8</v>
       </c>
       <c r="H26" s="8">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>21</v>
       </c>
       <c r="C29" s="9">
-        <v>41992.1</v>
+        <v>46722.1</v>
       </c>
       <c r="D29" s="9">
-        <v>28802.5</v>
+        <v>42032.1</v>
       </c>
       <c r="E29" s="9">
-        <v>13189.6</v>
+        <v>4690.0</v>
       </c>
       <c r="F29" s="10">
-        <v>0.31409717542109</v>
+        <v>0.10038076199486</v>
       </c>
       <c r="G29" s="9">
-        <v>263.792</v>
+        <v>93.8</v>
       </c>
       <c r="H29" s="9">
         <v>0</v>
@@ -1157,10 +1157,10 @@
         <v>17829.6</v>
       </c>
       <c r="E33" s="13">
-        <v>12000.0</v>
+        <v>17829.6</v>
       </c>
       <c r="F33" s="12">
-        <v>5829.6</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1205,13 +1205,13 @@
         <v>19</v>
       </c>
       <c r="D36" s="12">
-        <v>4800.0</v>
+        <v>5600.0</v>
       </c>
       <c r="E36" s="13">
         <v>4200.0</v>
       </c>
       <c r="F36" s="12">
-        <v>600.0</v>
+        <v>1400.0</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1222,13 +1222,13 @@
         <v>20</v>
       </c>
       <c r="D37" s="12">
-        <v>9650.0</v>
+        <v>13580.0</v>
       </c>
       <c r="E37" s="13">
-        <v>3950.0</v>
+        <v>11350.0</v>
       </c>
       <c r="F37" s="12">
-        <v>5700.0</v>
+        <v>2230.0</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1303,15 +1303,15 @@
       </c>
       <c r="D43" s="9">
         <f>sum(D33:D42)</f>
-        <v>41992.1</v>
+        <v>46722.1</v>
       </c>
       <c r="E43" s="9">
         <f>sum(E33:E42)</f>
-        <v>28802.5</v>
+        <v>42032.1</v>
       </c>
       <c r="F43" s="9">
         <f>sum(F33:F42)</f>
-        <v>13189.6</v>
+        <v>4690</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="E44" s="15">
         <f>(E43/D43)</f>
-        <v>0.68590282457891</v>
+        <v>0.89961923800514</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="E45" s="15">
         <f>(F43/D43)</f>
-        <v>0.31409717542109</v>
+        <v>0.10038076199486</v>
       </c>
     </row>
   </sheetData>

--- a/views/financeiro/relatorios/resumo_campanha_73.xlsx
+++ b/views/financeiro/relatorios/resumo_campanha_73.xlsx
@@ -646,10 +646,10 @@
         <v>16</v>
       </c>
       <c r="C8" s="6">
-        <v>17829.6</v>
+        <v>18429.6</v>
       </c>
       <c r="D8" s="6">
-        <v>17829.6</v>
+        <v>18429.6</v>
       </c>
       <c r="E8" s="6">
         <v>0.0</v>
@@ -675,16 +675,16 @@
         <v>1990.0</v>
       </c>
       <c r="D9" s="6">
-        <v>930.0</v>
+        <v>1990.0</v>
       </c>
       <c r="E9" s="6">
-        <v>1060.0</v>
+        <v>0.0</v>
       </c>
       <c r="F9" s="7">
-        <v>0.53266331658291</v>
+        <v>0.0</v>
       </c>
       <c r="G9" s="6">
-        <v>21.2</v>
+        <v>0</v>
       </c>
       <c r="H9" s="8">
         <v>0</v>
@@ -724,25 +724,25 @@
         <v>19</v>
       </c>
       <c r="C11" s="6">
-        <v>5600.0</v>
+        <v>5850.0</v>
       </c>
       <c r="D11" s="6">
-        <v>4200.0</v>
+        <v>4450.0</v>
       </c>
       <c r="E11" s="6">
         <v>1400.0</v>
       </c>
       <c r="F11" s="7">
-        <v>0.25</v>
+        <v>0.23931623931624</v>
       </c>
       <c r="G11" s="6">
         <v>28.0</v>
       </c>
       <c r="H11" s="8">
-        <v>0</v>
+        <v>600.0</v>
       </c>
       <c r="I11" s="8">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -750,19 +750,19 @@
         <v>20</v>
       </c>
       <c r="C12" s="6">
-        <v>13580.0</v>
+        <v>15280.0</v>
       </c>
       <c r="D12" s="6">
-        <v>11350.0</v>
+        <v>15280.0</v>
       </c>
       <c r="E12" s="6">
-        <v>2230.0</v>
+        <v>0.0</v>
       </c>
       <c r="F12" s="7">
-        <v>0.16421207658321</v>
+        <v>0.0</v>
       </c>
       <c r="G12" s="6">
-        <v>44.6</v>
+        <v>0</v>
       </c>
       <c r="H12" s="8">
         <v>0</v>
@@ -776,25 +776,25 @@
         <v>21</v>
       </c>
       <c r="C13" s="9">
-        <v>39829.6</v>
+        <v>42379.6</v>
       </c>
       <c r="D13" s="9">
-        <v>35139.6</v>
+        <v>40979.6</v>
       </c>
       <c r="E13" s="9">
-        <v>4690.0</v>
+        <v>1400.0</v>
       </c>
       <c r="F13" s="10">
-        <v>0.11775162190933</v>
+        <v>0.033034762008136</v>
       </c>
       <c r="G13" s="9">
-        <v>93.8</v>
+        <v>28.0</v>
       </c>
       <c r="H13" s="9">
-        <v>0</v>
+        <v>600.0</v>
       </c>
       <c r="I13" s="9">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1025,25 +1025,25 @@
         <v>29</v>
       </c>
       <c r="C26" s="6">
-        <v>39829.6</v>
+        <v>42379.6</v>
       </c>
       <c r="D26" s="6">
-        <v>35139.6</v>
+        <v>40979.6</v>
       </c>
       <c r="E26" s="6">
-        <v>4690.0</v>
+        <v>1400.0</v>
       </c>
       <c r="F26" s="7">
-        <v>0.11775162190933</v>
+        <v>0.033034762008136</v>
       </c>
       <c r="G26" s="6">
-        <v>93.8</v>
+        <v>28.0</v>
       </c>
       <c r="H26" s="8">
-        <v>0</v>
+        <v>600.0</v>
       </c>
       <c r="I26" s="8">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1103,25 +1103,25 @@
         <v>21</v>
       </c>
       <c r="C29" s="9">
-        <v>46722.1</v>
+        <v>49272.1</v>
       </c>
       <c r="D29" s="9">
-        <v>42032.1</v>
+        <v>47872.1</v>
       </c>
       <c r="E29" s="9">
-        <v>4690.0</v>
+        <v>1400.0</v>
       </c>
       <c r="F29" s="10">
-        <v>0.10038076199486</v>
+        <v>0.028413645856377</v>
       </c>
       <c r="G29" s="9">
-        <v>93.8</v>
+        <v>28.0</v>
       </c>
       <c r="H29" s="9">
-        <v>0</v>
+        <v>600.0</v>
       </c>
       <c r="I29" s="9">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1154,10 +1154,10 @@
         <v>16</v>
       </c>
       <c r="D33" s="12">
-        <v>17829.6</v>
+        <v>18429.6</v>
       </c>
       <c r="E33" s="13">
-        <v>17829.6</v>
+        <v>18429.6</v>
       </c>
       <c r="F33" s="12">
         <v>0.0</v>
@@ -1174,10 +1174,10 @@
         <v>1990.0</v>
       </c>
       <c r="E34" s="13">
-        <v>930.0</v>
+        <v>1990.0</v>
       </c>
       <c r="F34" s="12">
-        <v>1060.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1205,13 +1205,13 @@
         <v>19</v>
       </c>
       <c r="D36" s="12">
-        <v>5600.0</v>
+        <v>5850.0</v>
       </c>
       <c r="E36" s="13">
-        <v>4200.0</v>
+        <v>5050.0</v>
       </c>
       <c r="F36" s="12">
-        <v>1400.0</v>
+        <v>800.0</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1222,13 +1222,13 @@
         <v>20</v>
       </c>
       <c r="D37" s="12">
-        <v>13580.0</v>
+        <v>15280.0</v>
       </c>
       <c r="E37" s="13">
-        <v>11350.0</v>
+        <v>15280.0</v>
       </c>
       <c r="F37" s="12">
-        <v>2230.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1303,15 +1303,15 @@
       </c>
       <c r="D43" s="9">
         <f>sum(D33:D42)</f>
-        <v>46722.1</v>
+        <v>49272.1</v>
       </c>
       <c r="E43" s="9">
         <f>sum(E33:E42)</f>
-        <v>42032.1</v>
+        <v>48472.1</v>
       </c>
       <c r="F43" s="9">
         <f>sum(F33:F42)</f>
-        <v>4690</v>
+        <v>800</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="E44" s="15">
         <f>(E43/D43)</f>
-        <v>0.89961923800514</v>
+        <v>0.98376363093921</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="E45" s="15">
         <f>(F43/D43)</f>
-        <v>0.10038076199486</v>
+        <v>0.016236369060787</v>
       </c>
     </row>
   </sheetData>
